--- a/PSS/test_output/Evaluation_result.xlsx
+++ b/PSS/test_output/Evaluation_result.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_1176_90_ins</t>
+          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_cds_del</t>
+          <t>Cgl0141_cds_del</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cgl0006_Cgl0005_sub</t>
+          <t>Cgl0851_ecoli_pgi_sub</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/PSS/test_output/Evaluation_result.xlsx
+++ b/PSS/test_output/Evaluation_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Cgl0591_-1_Ppgk_promoter_ins</t>
+          <t>CGL_RS00010</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Cgl0141_cds_del</t>
+          <t>CGL_RS00015</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,10 +472,22 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Cgl0851_ecoli_pgi_sub</t>
+          <t>CGL_RS00020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>The target sequence can map to multiple positions in the reference genome. The genome editing may be mislocated.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CGL_RS00025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>The target sequence can map to multiple positions in the reference genome. The genome editing may be mislocated.</t>
         </is>
